--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_38.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3098433.986917287</v>
+        <v>3094379.062537786</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2250409.38184714</v>
+        <v>2310564.14322317</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791244</v>
+        <v>419463.0933791241</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7291818.089466811</v>
+        <v>7288868.192514716</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>41.2810754813274</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>248.9008859312746</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>128.7880777047345</v>
@@ -747,13 +747,13 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>95.53469684583251</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
         <v>48.89338144820752</v>
@@ -804,7 +804,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
-        <v>177.5210747552478</v>
+        <v>146.3687437035961</v>
       </c>
     </row>
     <row r="4">
@@ -823,16 +823,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>131.6846499321094</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>247.2222569148907</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>339.2105191355242</v>
       </c>
       <c r="C5" t="n">
-        <v>120.6389560559178</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
-        <v>51.52905862499505</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
         <v>128.7880777047345</v>
@@ -984,10 +984,10 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>47.77614120445413</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>155.6053465906474</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>137.5067078861966</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>235.4551847859273</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>269.6134436991294</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>116.876383545772</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>165.6158245190445</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1376,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5664151603045</v>
+        <v>259.1847082032211</v>
       </c>
       <c r="F11" t="n">
         <v>318.7342196110055</v>
@@ -1385,10 +1385,10 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H11" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V11" t="n">
         <v>244.6944667292003</v>
       </c>
       <c r="W11" t="n">
-        <v>128.0652136235384</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>291.5668045419573</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>302.4985237799665</v>
+        <v>157.2659671964265</v>
       </c>
       <c r="C14" t="n">
         <v>295.2524720077822</v>
@@ -1613,16 +1613,16 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F14" t="n">
         <v>318.7342196110055</v>
       </c>
       <c r="G14" t="n">
-        <v>166.5971695244027</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.8571450340435</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X14" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y14" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C16" t="n">
-        <v>74.51179228035423</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H16" t="n">
-        <v>59.93249105380451</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I16" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S16" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T16" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U16" t="n">
         <v>188.5931293662016</v>
       </c>
       <c r="V16" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W16" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X16" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y16" t="n">
         <v>126.8896660972066</v>
@@ -1856,13 +1856,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
-        <v>122.8352329541626</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
         <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2093,13 +2093,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2141,10 +2141,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
         <v>262.1658326730205</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380516</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596456</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H22" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="23">
@@ -2330,13 +2330,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,13 +2363,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2378,10 +2378,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -2795,7 +2795,7 @@
         <v>295.2524720077822</v>
       </c>
       <c r="D29" t="n">
-        <v>287.5954430211824</v>
+        <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
         <v>304.5664151603044</v>
@@ -2804,13 +2804,13 @@
         <v>318.7342196110055</v>
       </c>
       <c r="G29" t="n">
-        <v>315.0398534825603</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H29" t="n">
-        <v>226.8509454548577</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.9624712641433</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404343</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
       </c>
       <c r="U29" t="n">
-        <v>159.2039277954308</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V29" t="n">
         <v>244.6944667292003</v>
@@ -2855,7 +2855,7 @@
         <v>273.2977702070789</v>
       </c>
       <c r="X29" t="n">
-        <v>291.5668045419572</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
         <v>298.5345275142884</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007175</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035416</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219388</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507299</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484026</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G31" t="n">
-        <v>72.5802388872324</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380444</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497637</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,22 +2995,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943229</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U31" t="n">
-        <v>188.5931293662015</v>
+        <v>188.5931293662016</v>
       </c>
       <c r="V31" t="n">
         <v>169.3282772530675</v>
       </c>
       <c r="W31" t="n">
-        <v>186.5058235738176</v>
+        <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
         <v>137.7482445205302</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>286.9034269003579</v>
+        <v>280.4599644277189</v>
       </c>
       <c r="C32" t="n">
-        <v>279.6573751281737</v>
+        <v>273.2139126555347</v>
       </c>
       <c r="D32" t="n">
-        <v>272.000346141574</v>
+        <v>265.5568836689349</v>
       </c>
       <c r="E32" t="n">
-        <v>288.9713182806959</v>
+        <v>282.5278558080569</v>
       </c>
       <c r="F32" t="n">
-        <v>303.139122731397</v>
+        <v>296.695660258758</v>
       </c>
       <c r="G32" t="n">
-        <v>299.4447566029519</v>
+        <v>293.0012941303128</v>
       </c>
       <c r="H32" t="n">
-        <v>211.2558485752493</v>
+        <v>204.8123861026102</v>
       </c>
       <c r="I32" t="n">
-        <v>27.36737438453486</v>
+        <v>20.92391191189579</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>55.26204815443498</v>
+        <v>48.81858568179591</v>
       </c>
       <c r="T32" t="n">
-        <v>111.6792250622525</v>
+        <v>105.2357625896135</v>
       </c>
       <c r="U32" t="n">
-        <v>143.6088309158224</v>
+        <v>137.1653684431834</v>
       </c>
       <c r="V32" t="n">
-        <v>229.0993698495918</v>
+        <v>222.6559073769528</v>
       </c>
       <c r="W32" t="n">
-        <v>257.7026733274704</v>
+        <v>251.2592108548314</v>
       </c>
       <c r="X32" t="n">
-        <v>275.9717076623488</v>
+        <v>269.5282451897097</v>
       </c>
       <c r="Y32" t="n">
-        <v>282.9394306346799</v>
+        <v>276.4959681620409</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.7695671504633</v>
+        <v>67.32610467782423</v>
       </c>
       <c r="C34" t="n">
-        <v>58.91669540074571</v>
+        <v>52.47323292810664</v>
       </c>
       <c r="D34" t="n">
-        <v>44.49041061258544</v>
+        <v>38.04694813994637</v>
       </c>
       <c r="E34" t="n">
-        <v>44.41685266546455</v>
+        <v>37.97339019282548</v>
       </c>
       <c r="F34" t="n">
-        <v>46.16630408523181</v>
+        <v>39.72284161259275</v>
       </c>
       <c r="G34" t="n">
-        <v>56.98514200762395</v>
+        <v>50.54167953498488</v>
       </c>
       <c r="H34" t="n">
-        <v>44.33739417419599</v>
+        <v>37.89393170155692</v>
       </c>
       <c r="I34" t="n">
-        <v>22.17710975536792</v>
+        <v>15.73364728272885</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>13.07560811982384</v>
+        <v>6.632145647184771</v>
       </c>
       <c r="S34" t="n">
-        <v>91.20155162535116</v>
+        <v>84.75808915271209</v>
       </c>
       <c r="T34" t="n">
-        <v>123.7754899595232</v>
+        <v>117.3320274868842</v>
       </c>
       <c r="U34" t="n">
-        <v>172.9980324865931</v>
+        <v>166.554570013954</v>
       </c>
       <c r="V34" t="n">
-        <v>153.733180373459</v>
+        <v>147.28971790082</v>
       </c>
       <c r="W34" t="n">
-        <v>170.9107266942092</v>
+        <v>164.4672642215701</v>
       </c>
       <c r="X34" t="n">
-        <v>122.1531476409218</v>
+        <v>115.7096851682827</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.2945692175981</v>
+        <v>104.851106744959</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H35" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3326,10 +3326,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y35" t="n">
         <v>262.1658326730205</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U37" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W37" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="38">
@@ -3740,25 +3740,25 @@
         <v>300.022958784051</v>
       </c>
       <c r="C41" t="n">
-        <v>292.7769070118667</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>285.119878025267</v>
       </c>
       <c r="E41" t="n">
-        <v>302.0908501643889</v>
+        <v>302.090850164389</v>
       </c>
       <c r="F41" t="n">
-        <v>316.2586546150901</v>
+        <v>100.6386139466689</v>
       </c>
       <c r="G41" t="n">
-        <v>312.5642884866449</v>
+        <v>312.564288486645</v>
       </c>
       <c r="H41" t="n">
         <v>224.3753804589423</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>40.48690626822791</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>68.38158003812804</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>124.7987569459456</v>
       </c>
       <c r="U41" t="n">
-        <v>156.7283627995154</v>
+        <v>156.7283627995155</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>242.2189017332849</v>
       </c>
       <c r="W41" t="n">
         <v>270.8222052111635</v>
       </c>
       <c r="X41" t="n">
-        <v>256.5804368513412</v>
+        <v>289.0912395460418</v>
       </c>
       <c r="Y41" t="n">
-        <v>296.0589625183729</v>
+        <v>296.058962518373</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.88909903415633</v>
+        <v>86.88909903415636</v>
       </c>
       <c r="C43" t="n">
-        <v>72.03622728443874</v>
+        <v>72.03622728443877</v>
       </c>
       <c r="D43" t="n">
-        <v>57.60994249627846</v>
+        <v>57.60994249627849</v>
       </c>
       <c r="E43" t="n">
-        <v>57.53638454915757</v>
+        <v>57.5363845491576</v>
       </c>
       <c r="F43" t="n">
-        <v>59.28583596892484</v>
+        <v>59.28583596892487</v>
       </c>
       <c r="G43" t="n">
-        <v>70.10467389131698</v>
+        <v>70.10467389131701</v>
       </c>
       <c r="H43" t="n">
-        <v>57.45692605788902</v>
+        <v>57.45692605788905</v>
       </c>
       <c r="I43" t="n">
-        <v>35.29664163906095</v>
+        <v>35.29664163906098</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>26.19514000351687</v>
+        <v>26.1951400035169</v>
       </c>
       <c r="S43" t="n">
         <v>104.3210835090442</v>
@@ -3952,19 +3952,19 @@
         <v>136.8950218432163</v>
       </c>
       <c r="U43" t="n">
-        <v>186.1175643702861</v>
+        <v>186.1175643702862</v>
       </c>
       <c r="V43" t="n">
         <v>166.8527122571521</v>
       </c>
       <c r="W43" t="n">
-        <v>184.0302585779022</v>
+        <v>184.0302585779023</v>
       </c>
       <c r="X43" t="n">
         <v>135.2726795246148</v>
       </c>
       <c r="Y43" t="n">
-        <v>124.4141011012911</v>
+        <v>124.4141011012912</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>142.7133991434036</v>
+        <v>300.022958784051</v>
       </c>
       <c r="C44" t="n">
         <v>292.7769070118668</v>
@@ -3992,7 +3992,7 @@
         <v>312.564288486645</v>
       </c>
       <c r="H44" t="n">
-        <v>224.3753804589423</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4034,10 +4034,10 @@
         <v>156.7283627995155</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>242.2189017332849</v>
       </c>
       <c r="W44" t="n">
-        <v>270.8222052111635</v>
+        <v>95.66912429617489</v>
       </c>
       <c r="X44" t="n">
         <v>289.0912395460418</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>86.88909903415639</v>
+        <v>86.88909903415636</v>
       </c>
       <c r="C46" t="n">
-        <v>72.03622728443879</v>
+        <v>72.03622728443877</v>
       </c>
       <c r="D46" t="n">
-        <v>57.60994249627852</v>
+        <v>57.60994249627849</v>
       </c>
       <c r="E46" t="n">
-        <v>57.53638454915763</v>
+        <v>57.5363845491576</v>
       </c>
       <c r="F46" t="n">
-        <v>59.2858359689249</v>
+        <v>59.28583596892487</v>
       </c>
       <c r="G46" t="n">
-        <v>70.10467389131703</v>
+        <v>70.10467389131701</v>
       </c>
       <c r="H46" t="n">
-        <v>57.45692605788908</v>
+        <v>57.45692605788905</v>
       </c>
       <c r="I46" t="n">
-        <v>35.29664163906101</v>
+        <v>35.29664163906098</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>26.19514000351693</v>
+        <v>26.1951400035169</v>
       </c>
       <c r="S46" t="n">
         <v>104.3210835090442</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1702.270642227591</v>
+        <v>443.1045135299925</v>
       </c>
       <c r="C2" t="n">
-        <v>1660.572586185846</v>
+        <v>443.1045135299925</v>
       </c>
       <c r="D2" t="n">
-        <v>1275.131457402513</v>
+        <v>443.1045135299925</v>
       </c>
       <c r="E2" t="n">
-        <v>872.5479325190579</v>
+        <v>443.1045135299925</v>
       </c>
       <c r="F2" t="n">
-        <v>455.6534940490357</v>
+        <v>430.2504791003743</v>
       </c>
       <c r="G2" t="n">
-        <v>42.49073853703882</v>
+        <v>178.8354428061575</v>
       </c>
       <c r="H2" t="n">
-        <v>42.49073853703882</v>
+        <v>178.8354428061575</v>
       </c>
       <c r="I2" t="n">
-        <v>42.49073853703882</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1405114458669</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="K2" t="n">
-        <v>546.1228674733288</v>
+        <v>399.4806819260841</v>
       </c>
       <c r="L2" t="n">
-        <v>1039.443159191858</v>
+        <v>399.4806819260841</v>
       </c>
       <c r="M2" t="n">
-        <v>1336.309833828091</v>
+        <v>550.6768587708648</v>
       </c>
       <c r="N2" t="n">
-        <v>1336.309833828091</v>
+        <v>1051.843641766316</v>
       </c>
       <c r="O2" t="n">
-        <v>1776.349434720419</v>
+        <v>1491.883242658644</v>
       </c>
       <c r="P2" t="n">
-        <v>2124.536926851941</v>
+        <v>1840.070734790166</v>
       </c>
       <c r="Q2" t="n">
-        <v>2124.536926851941</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="R2" t="n">
-        <v>2124.536926851941</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="S2" t="n">
-        <v>1958.023371792992</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="T2" t="n">
-        <v>1958.023371792992</v>
+        <v>1801.415692490531</v>
       </c>
       <c r="U2" t="n">
-        <v>1702.270642227591</v>
+        <v>1545.66296292513</v>
       </c>
       <c r="V2" t="n">
-        <v>1702.270642227591</v>
+        <v>1203.556153628648</v>
       </c>
       <c r="W2" t="n">
-        <v>1702.270642227591</v>
+        <v>832.5571185969357</v>
       </c>
       <c r="X2" t="n">
-        <v>1702.270642227591</v>
+        <v>443.1045135299925</v>
       </c>
       <c r="Y2" t="n">
-        <v>1702.270642227591</v>
+        <v>443.1045135299925</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>605.5673750163362</v>
+        <v>689.2100785987454</v>
       </c>
       <c r="C3" t="n">
-        <v>454.9131445764284</v>
+        <v>689.2100785987454</v>
       </c>
       <c r="D3" t="n">
-        <v>324.8241771979087</v>
+        <v>559.1211112202258</v>
       </c>
       <c r="E3" t="n">
-        <v>188.3776863087965</v>
+        <v>422.6746203311135</v>
       </c>
       <c r="F3" t="n">
-        <v>91.87799252512724</v>
+        <v>298.2428142142453</v>
       </c>
       <c r="G3" t="n">
-        <v>91.87799252512724</v>
+        <v>178.1829962861098</v>
       </c>
       <c r="H3" t="n">
-        <v>91.87799252512724</v>
+        <v>89.8855798867107</v>
       </c>
       <c r="I3" t="n">
-        <v>42.49073853703882</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="J3" t="n">
-        <v>155.6057207567662</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="K3" t="n">
-        <v>155.6057207567662</v>
+        <v>360.2374719608487</v>
       </c>
       <c r="L3" t="n">
-        <v>155.6057207567662</v>
+        <v>843.803557859162</v>
       </c>
       <c r="M3" t="n">
-        <v>681.4286101526217</v>
+        <v>843.803557859162</v>
       </c>
       <c r="N3" t="n">
-        <v>1207.251499548477</v>
+        <v>1118.128143219266</v>
       </c>
       <c r="O3" t="n">
-        <v>1723.771782139458</v>
+        <v>1619.294926214717</v>
       </c>
       <c r="P3" t="n">
-        <v>1890.171835297051</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="Q3" t="n">
-        <v>2124.536926851941</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="R3" t="n">
-        <v>2100.619883750006</v>
+        <v>2000.999251829179</v>
       </c>
       <c r="S3" t="n">
-        <v>1965.689206649874</v>
+        <v>1866.068574729048</v>
       </c>
       <c r="T3" t="n">
-        <v>1788.705394848783</v>
+        <v>1689.084762927956</v>
       </c>
       <c r="U3" t="n">
-        <v>1578.642251527425</v>
+        <v>1479.021619606598</v>
       </c>
       <c r="V3" t="n">
-        <v>1356.102249898492</v>
+        <v>1256.481617977665</v>
       </c>
       <c r="W3" t="n">
-        <v>1125.985004031779</v>
+        <v>1026.364372110952</v>
       </c>
       <c r="X3" t="n">
-        <v>936.6779263817903</v>
+        <v>837.0572944609637</v>
       </c>
       <c r="Y3" t="n">
-        <v>757.3637094572975</v>
+        <v>689.2100785987454</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.963434073859</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="C4" t="n">
-        <v>205.963434073859</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="D4" t="n">
-        <v>205.963434073859</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="E4" t="n">
-        <v>205.963434073859</v>
+        <v>685.02956116153</v>
       </c>
       <c r="F4" t="n">
-        <v>205.963434073859</v>
+        <v>527.703626374503</v>
       </c>
       <c r="G4" t="n">
-        <v>205.963434073859</v>
+        <v>359.4495724739485</v>
       </c>
       <c r="H4" t="n">
-        <v>205.963434073859</v>
+        <v>203.9710214354425</v>
       </c>
       <c r="I4" t="n">
-        <v>72.86900871093687</v>
+        <v>70.87659607252034</v>
       </c>
       <c r="J4" t="n">
-        <v>42.49073853703882</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085642</v>
       </c>
       <c r="L4" t="n">
-        <v>288.4534195207805</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M4" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N4" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O4" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P4" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q4" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R4" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="S4" t="n">
-        <v>741.1216772611406</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="T4" t="n">
-        <v>741.1216772611406</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="U4" t="n">
-        <v>455.6828855030415</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="V4" t="n">
-        <v>205.963434073859</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="W4" t="n">
-        <v>205.963434073859</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="X4" t="n">
-        <v>205.963434073859</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="Y4" t="n">
-        <v>205.963434073859</v>
+        <v>818.0443590727516</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1782.43011755546</v>
+        <v>62.47471179983324</v>
       </c>
       <c r="C5" t="n">
-        <v>1660.572586185846</v>
+        <v>62.47471179983324</v>
       </c>
       <c r="D5" t="n">
-        <v>1275.131457402513</v>
+        <v>62.47471179983324</v>
       </c>
       <c r="E5" t="n">
-        <v>872.5479325190579</v>
+        <v>62.47471179983324</v>
       </c>
       <c r="F5" t="n">
-        <v>455.6534940490357</v>
+        <v>49.62067737021506</v>
       </c>
       <c r="G5" t="n">
-        <v>42.49073853703882</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="H5" t="n">
-        <v>42.49073853703882</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="I5" t="n">
-        <v>42.49073853703882</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1405114458669</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="K5" t="n">
-        <v>187.1405114458669</v>
+        <v>399.4806819260841</v>
       </c>
       <c r="L5" t="n">
-        <v>680.4608031643958</v>
+        <v>892.8009736446129</v>
       </c>
       <c r="M5" t="n">
-        <v>1206.283692560251</v>
+        <v>1393.967756640064</v>
       </c>
       <c r="N5" t="n">
-        <v>1206.283692560251</v>
+        <v>1393.967756640064</v>
       </c>
       <c r="O5" t="n">
-        <v>1591.503874579471</v>
+        <v>1491.883242658644</v>
       </c>
       <c r="P5" t="n">
-        <v>1939.691366710993</v>
+        <v>1840.070734790166</v>
       </c>
       <c r="Q5" t="n">
-        <v>2124.536926851941</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="R5" t="n">
-        <v>2124.536926851941</v>
+        <v>1986.923381216636</v>
       </c>
       <c r="S5" t="n">
-        <v>2124.536926851941</v>
+        <v>1986.923381216636</v>
       </c>
       <c r="T5" t="n">
-        <v>2124.536926851941</v>
+        <v>1763.422778776053</v>
       </c>
       <c r="U5" t="n">
-        <v>2124.536926851941</v>
+        <v>1507.670049210652</v>
       </c>
       <c r="V5" t="n">
-        <v>1782.43011755546</v>
+        <v>1165.56323991417</v>
       </c>
       <c r="W5" t="n">
-        <v>1782.43011755546</v>
+        <v>794.5642048824575</v>
       </c>
       <c r="X5" t="n">
-        <v>1782.43011755546</v>
+        <v>405.1115998155143</v>
       </c>
       <c r="Y5" t="n">
-        <v>1782.43011755546</v>
+        <v>405.1115998155143</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>605.5673750163362</v>
+        <v>505.9467430955096</v>
       </c>
       <c r="C6" t="n">
-        <v>553.5178208496745</v>
+        <v>355.2925126556019</v>
       </c>
       <c r="D6" t="n">
-        <v>423.4288534711549</v>
+        <v>225.2035452770822</v>
       </c>
       <c r="E6" t="n">
-        <v>286.9823625820426</v>
+        <v>88.7570543879699</v>
       </c>
       <c r="F6" t="n">
-        <v>162.5505564651744</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="G6" t="n">
-        <v>42.49073853703882</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="H6" t="n">
-        <v>42.49073853703882</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="I6" t="n">
-        <v>42.49073853703882</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="J6" t="n">
-        <v>42.49073853703882</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="K6" t="n">
-        <v>362.2298845992652</v>
+        <v>360.2374719608487</v>
       </c>
       <c r="L6" t="n">
-        <v>845.7959704975785</v>
+        <v>843.803557859162</v>
       </c>
       <c r="M6" t="n">
-        <v>958.7275771847977</v>
+        <v>843.803557859162</v>
       </c>
       <c r="N6" t="n">
-        <v>1484.550466580653</v>
+        <v>1118.128143219266</v>
       </c>
       <c r="O6" t="n">
-        <v>1484.550466580653</v>
+        <v>1619.294926214717</v>
       </c>
       <c r="P6" t="n">
-        <v>1890.171835297051</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="Q6" t="n">
-        <v>2124.536926851941</v>
+        <v>2024.916294931114</v>
       </c>
       <c r="R6" t="n">
-        <v>2100.619883750006</v>
+        <v>2000.999251829179</v>
       </c>
       <c r="S6" t="n">
-        <v>1965.689206649874</v>
+        <v>1866.068574729048</v>
       </c>
       <c r="T6" t="n">
-        <v>1788.705394848783</v>
+        <v>1689.084762927956</v>
       </c>
       <c r="U6" t="n">
-        <v>1578.642251527425</v>
+        <v>1479.021619606598</v>
       </c>
       <c r="V6" t="n">
-        <v>1356.102249898492</v>
+        <v>1256.481617977665</v>
       </c>
       <c r="W6" t="n">
-        <v>1125.985004031779</v>
+        <v>1026.364372110952</v>
       </c>
       <c r="X6" t="n">
-        <v>936.6779263817903</v>
+        <v>837.0572944609637</v>
       </c>
       <c r="Y6" t="n">
-        <v>757.3637094572975</v>
+        <v>657.743077536471</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>385.7537556387614</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="C7" t="n">
-        <v>385.7537556387614</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="D7" t="n">
-        <v>385.7537556387614</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="E7" t="n">
-        <v>230.1949434979639</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="F7" t="n">
-        <v>72.86900871093687</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="G7" t="n">
-        <v>72.86900871093687</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="H7" t="n">
-        <v>72.86900871093687</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="I7" t="n">
-        <v>72.86900871093687</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="J7" t="n">
-        <v>42.49073853703882</v>
+        <v>40.49832589862229</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085642</v>
       </c>
       <c r="L7" t="n">
-        <v>288.4534195207805</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M7" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N7" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O7" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P7" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="S7" t="n">
-        <v>943.9377610785913</v>
+        <v>784.7682306718439</v>
       </c>
       <c r="T7" t="n">
-        <v>943.9377610785913</v>
+        <v>549.049178840078</v>
       </c>
       <c r="U7" t="n">
-        <v>943.9377610785913</v>
+        <v>263.610387081979</v>
       </c>
       <c r="V7" t="n">
-        <v>805.0420965470796</v>
+        <v>263.610387081979</v>
       </c>
       <c r="W7" t="n">
-        <v>805.0420965470796</v>
+        <v>263.610387081979</v>
       </c>
       <c r="X7" t="n">
-        <v>570.9617743300627</v>
+        <v>263.610387081979</v>
       </c>
       <c r="Y7" t="n">
-        <v>570.9617743300627</v>
+        <v>40.49832589862229</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2365.64850507718</v>
+        <v>734.8016693171264</v>
       </c>
       <c r="C8" t="n">
-        <v>2127.814985091395</v>
+        <v>341.626167820057</v>
       </c>
       <c r="D8" t="n">
-        <v>1742.373856308063</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="E8" t="n">
-        <v>1339.790331424607</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="F8" t="n">
-        <v>922.895892954585</v>
+        <v>56.43532157313638</v>
       </c>
       <c r="G8" t="n">
-        <v>509.7331374425881</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4805,13 +4805,13 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>550.9450990378335</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="L8" t="n">
-        <v>1044.265390756362</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M8" t="n">
-        <v>1392.575851912381</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N8" t="n">
         <v>1392.575851912381</v>
@@ -4826,28 +4826,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.64850507718</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="V8" t="n">
-        <v>2365.64850507718</v>
+        <v>1506.295450060236</v>
       </c>
       <c r="W8" t="n">
-        <v>2365.64850507718</v>
+        <v>1135.296415028523</v>
       </c>
       <c r="X8" t="n">
-        <v>2365.64850507718</v>
+        <v>1135.296415028523</v>
       </c>
       <c r="Y8" t="n">
-        <v>2365.64850507718</v>
+        <v>1135.296415028523</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4881,22 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>156.9821715485457</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K9" t="n">
-        <v>476.7213176107721</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L9" t="n">
-        <v>960.2874035090854</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M9" t="n">
-        <v>1545.785408515688</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="N9" t="n">
-        <v>2131.28341352229</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O9" t="n">
-        <v>2131.28341352229</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P9" t="n">
         <v>2131.28341352229</v>
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>373.1512011330396</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>202.9460831990289</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
         <v>47.31297010154361</v>
@@ -4993,19 +4993,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>830.7030395665587</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>564.7236943873829</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>281.3932923185605</v>
       </c>
       <c r="X10" t="n">
-        <v>781.4712810076976</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y10" t="n">
-        <v>558.3592198243409</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1827.815439560371</v>
+        <v>1596.229397996939</v>
       </c>
       <c r="C11" t="n">
-        <v>1529.58061935049</v>
+        <v>1297.994577787058</v>
       </c>
       <c r="D11" t="n">
-        <v>1239.080171854346</v>
+        <v>1007.494130290914</v>
       </c>
       <c r="E11" t="n">
-        <v>931.4373282580789</v>
+        <v>745.691394732105</v>
       </c>
       <c r="F11" t="n">
-        <v>609.483571075245</v>
+        <v>423.7376375492711</v>
       </c>
       <c r="G11" t="n">
-        <v>291.2614968504365</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411553</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5057,7 +5057,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P11" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q11" t="n">
         <v>3105.956385205776</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T11" t="n">
-        <v>3105.956385205776</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U11" t="n">
-        <v>3105.956385205776</v>
+        <v>2745.011542002407</v>
       </c>
       <c r="V11" t="n">
-        <v>2858.790257196483</v>
+        <v>2497.845413993113</v>
       </c>
       <c r="W11" t="n">
-        <v>2729.431455556545</v>
+        <v>2497.845413993113</v>
       </c>
       <c r="X11" t="n">
-        <v>2434.91953177679</v>
+        <v>2203.333490213358</v>
       </c>
       <c r="Y11" t="n">
-        <v>2133.36950398458</v>
+        <v>1901.783462421148</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5115,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I12" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K12" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="L12" t="n">
-        <v>865.4243596646552</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M12" t="n">
-        <v>1493.196009291336</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N12" t="n">
-        <v>1493.196009291336</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O12" t="n">
-        <v>1974.833293963354</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P12" t="n">
         <v>2380.454662679751</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551002</v>
+        <v>493.0843669551003</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082778</v>
+        <v>417.8199303082779</v>
       </c>
       <c r="D13" t="n">
-        <v>357.1274984979809</v>
+        <v>357.127498497981</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5093676443717</v>
+        <v>296.5093676443718</v>
       </c>
       <c r="F13" t="n">
-        <v>234.124114144533</v>
+        <v>234.1241141445331</v>
       </c>
       <c r="G13" t="n">
-        <v>160.8107415311667</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H13" t="n">
         <v>100.2728717798493</v>
       </c>
       <c r="I13" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J13" t="n">
-        <v>125.3967468362514</v>
+        <v>125.3967468362512</v>
       </c>
       <c r="K13" t="n">
-        <v>300.2831496757665</v>
+        <v>300.2831496757663</v>
       </c>
       <c r="L13" t="n">
-        <v>557.4621512791396</v>
+        <v>557.4621512791393</v>
       </c>
       <c r="M13" t="n">
-        <v>836.805091346977</v>
+        <v>836.8050913469767</v>
       </c>
       <c r="N13" t="n">
         <v>1113.046087107759</v>
@@ -5224,7 +5224,7 @@
         <v>1649.242993404582</v>
       </c>
       <c r="S13" t="n">
-        <v>1541.367590874319</v>
+        <v>1541.36759087432</v>
       </c>
       <c r="T13" t="n">
         <v>1400.589220329742</v>
@@ -5239,10 +5239,10 @@
         <v>850.6627251852101</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553815</v>
+        <v>711.5230842553816</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592132</v>
+        <v>583.3517043592133</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1448.730965405811</v>
+        <v>1827.815439560371</v>
       </c>
       <c r="C14" t="n">
-        <v>1150.496145195929</v>
+        <v>1529.58061935049</v>
       </c>
       <c r="D14" t="n">
-        <v>859.9956976997853</v>
+        <v>1239.080171854346</v>
       </c>
       <c r="E14" t="n">
-        <v>552.3528541035181</v>
+        <v>931.4373282580789</v>
       </c>
       <c r="F14" t="n">
-        <v>230.399096920684</v>
+        <v>609.483571075245</v>
       </c>
       <c r="G14" t="n">
-        <v>62.11912770411553</v>
+        <v>291.2614968504365</v>
       </c>
       <c r="H14" t="n">
         <v>62.11912770411553</v>
@@ -5276,19 +5276,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129444</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404062</v>
       </c>
       <c r="L14" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M14" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N14" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O14" t="n">
         <v>2572.923332933306</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3034.383511434015</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>3034.383511434015</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U14" t="n">
-        <v>2873.571463155802</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V14" t="n">
-        <v>2626.405335146509</v>
+        <v>2858.790257196483</v>
       </c>
       <c r="W14" t="n">
-        <v>2350.346981401985</v>
+        <v>2582.731903451959</v>
       </c>
       <c r="X14" t="n">
-        <v>2055.83505762223</v>
+        <v>2288.219979672204</v>
       </c>
       <c r="Y14" t="n">
-        <v>1754.285029830019</v>
+        <v>1986.669951879993</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5358,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L15" t="n">
-        <v>62.11912770411553</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M15" t="n">
-        <v>689.8907773307967</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669550995</v>
+        <v>493.0843669551003</v>
       </c>
       <c r="C16" t="n">
-        <v>417.8199303082774</v>
+        <v>417.8199303082778</v>
       </c>
       <c r="D16" t="n">
-        <v>357.1274984979807</v>
+        <v>357.1274984979809</v>
       </c>
       <c r="E16" t="n">
-        <v>296.509367644372</v>
+        <v>296.5093676443718</v>
       </c>
       <c r="F16" t="n">
-        <v>234.1241141445332</v>
+        <v>234.1241141445331</v>
       </c>
       <c r="G16" t="n">
-        <v>160.8107415311671</v>
+        <v>160.8107415311669</v>
       </c>
       <c r="H16" t="n">
-        <v>100.2728717798494</v>
+        <v>100.2728717798493</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>125.3967468362512</v>
+        <v>125.3967468362511</v>
       </c>
       <c r="K16" t="n">
         <v>300.2831496757663</v>
@@ -5455,31 +5455,31 @@
         <v>1581.729743385192</v>
       </c>
       <c r="Q16" t="n">
-        <v>1678.203301484816</v>
+        <v>1678.203301484817</v>
       </c>
       <c r="R16" t="n">
-        <v>1649.242993404581</v>
+        <v>1649.242993404582</v>
       </c>
       <c r="S16" t="n">
-        <v>1541.367590874319</v>
+        <v>1541.36759087432</v>
       </c>
       <c r="T16" t="n">
-        <v>1400.589220329741</v>
+        <v>1400.589220329742</v>
       </c>
       <c r="U16" t="n">
         <v>1210.091109858831</v>
       </c>
       <c r="V16" t="n">
-        <v>1039.052445966843</v>
+        <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852093</v>
+        <v>850.6627251852101</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553807</v>
+        <v>711.5230842553815</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592124</v>
+        <v>583.3517043592132</v>
       </c>
     </row>
     <row r="17">
@@ -5498,16 +5498,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5543,13 +5543,13 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
         <v>2405.467337224691</v>
@@ -5558,7 +5558,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="18">
@@ -5601,16 +5601,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1606.310991511064</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N18" t="n">
-        <v>1974.833293963354</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O18" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K19" t="n">
-        <v>273.0105384364859</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L19" t="n">
-        <v>437.1381783102858</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M19" t="n">
-        <v>623.4297566485498</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N19" t="n">
-        <v>806.6193906797589</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O19" t="n">
-        <v>969.3241577214669</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P19" t="n">
-        <v>1089.200323498045</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q19" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5732,19 +5732,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924226</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5777,7 +5777,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5786,10 +5786,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
@@ -5835,10 +5835,10 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>596.176270190801</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H22" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5911,19 +5911,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O22" t="n">
-        <v>840.2677880990384</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P22" t="n">
         <v>1089.200323498045</v>
@@ -5932,28 +5932,28 @@
         <v>1092.622519868096</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S22" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161904</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974525</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="23">
@@ -5972,22 +5972,22 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129435</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K23" t="n">
         <v>565.7512566404055</v>
@@ -5999,7 +5999,7 @@
         <v>1605.072448403515</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O23" t="n">
         <v>2572.923332933306</v>
@@ -6011,7 +6011,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
         <v>3071.119566829236</v>
@@ -6023,7 +6023,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
         <v>2405.467337224691</v>
@@ -6032,7 +6032,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="24">
@@ -6072,10 +6072,10 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>494.9732559860694</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>1122.744905612751</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N24" t="n">
         <v>1223.947919817482</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O25" t="n">
-        <v>967.282790386234</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P25" t="n">
-        <v>1087.158956162813</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q25" t="n">
         <v>1090.581152532863</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S25" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
         <v>1584.222786214271</v>
@@ -6209,64 +6209,64 @@
         <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
         <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
         <v>670.0483496134135</v>
       </c>
       <c r="L26" t="n">
-        <v>1256.420003061516</v>
+        <v>1163.368641331942</v>
       </c>
       <c r="M26" t="n">
-        <v>1895.47226483567</v>
+        <v>1802.420903106096</v>
       </c>
       <c r="N26" t="n">
-        <v>2516.334910202705</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O26" t="n">
-        <v>3049.425872824607</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P26" t="n">
-        <v>3427.582880238551</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848361</v>
@@ -6297,10 +6297,10 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J27" t="n">
         <v>186.4798411672776</v>
@@ -6309,10 +6309,10 @@
         <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>607.4220014342354</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1235.193651060917</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N27" t="n">
         <v>1235.193651060917</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517125</v>
+        <v>429.065661551713</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414161</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879678</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J28" t="n">
         <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192015</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904118</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T28" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V28" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286452</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988166</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026483</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6440,31 @@
         <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
-        <v>116.761294567897</v>
+        <v>116.7612945678971</v>
       </c>
       <c r="I29" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
         <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429869</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
         <v>1349.471364791089</v>
@@ -6476,16 +6476,16 @@
         <v>2609.386271932278</v>
       </c>
       <c r="O29" t="n">
-        <v>3079.395388107028</v>
+        <v>3079.395388107029</v>
       </c>
       <c r="P29" t="n">
-        <v>3427.58288023855</v>
+        <v>3427.582880238551</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.428440379499</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
         <v>3596.670073605752</v>
@@ -6534,10 +6534,10 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H30" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I30" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
         <v>186.4798411672776</v>
@@ -6549,13 +6549,13 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1617.556722754498</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N30" t="n">
-        <v>1640.815019777314</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O30" t="n">
-        <v>2157.335302368295</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P30" t="n">
         <v>2157.335302368295</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985356</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.065661551713</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.373229741416</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878069</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.369845387968</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G31" t="n">
         <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232841</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I31" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796857</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
-        <v>311.528880919201</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
         <v>568.7078825225741</v>
@@ -6658,13 +6658,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286451</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988166</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026484</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1767.367013084638</v>
+        <v>1719.814764781097</v>
       </c>
       <c r="C32" t="n">
-        <v>1484.884815985473</v>
+        <v>1443.841115634092</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.136991600045</v>
+        <v>1175.601839200825</v>
       </c>
       <c r="E32" t="n">
-        <v>918.2467711144932</v>
+        <v>890.2201666674341</v>
       </c>
       <c r="F32" t="n">
-        <v>612.0456370423749</v>
+        <v>590.5275805474765</v>
       </c>
       <c r="G32" t="n">
-        <v>309.576185928282</v>
+        <v>294.5666773855444</v>
       </c>
       <c r="H32" t="n">
-        <v>96.18643989267665</v>
+        <v>87.68547930209944</v>
       </c>
       <c r="I32" t="n">
-        <v>68.54262738304547</v>
+        <v>66.55021474462895</v>
       </c>
       <c r="J32" t="n">
-        <v>213.1924002918736</v>
+        <v>211.1999876534571</v>
       </c>
       <c r="K32" t="n">
-        <v>572.1747563193354</v>
+        <v>570.1823436809188</v>
       </c>
       <c r="L32" t="n">
-        <v>1173.98555567825</v>
+        <v>1063.502635399448</v>
       </c>
       <c r="M32" t="n">
-        <v>1719.986455722831</v>
+        <v>1609.503535444028</v>
       </c>
       <c r="N32" t="n">
-        <v>2356.288247000678</v>
+        <v>2161.935867821611</v>
       </c>
       <c r="O32" t="n">
-        <v>2822.844663970977</v>
+        <v>2601.975468713939</v>
       </c>
       <c r="P32" t="n">
-        <v>3171.032156102499</v>
+        <v>2950.162960845461</v>
       </c>
       <c r="Q32" t="n">
-        <v>3355.877716243448</v>
+        <v>3249.878056474709</v>
       </c>
       <c r="R32" t="n">
-        <v>3427.131369152273</v>
+        <v>3327.510737231447</v>
       </c>
       <c r="S32" t="n">
-        <v>3371.311118491228</v>
+        <v>3278.199034522562</v>
       </c>
       <c r="T32" t="n">
-        <v>3258.503820448548</v>
+        <v>3171.900284432044</v>
       </c>
       <c r="U32" t="n">
-        <v>3113.444395281051</v>
+        <v>3033.349407216707</v>
       </c>
       <c r="V32" t="n">
-        <v>2882.030890382473</v>
+        <v>2808.44445027029</v>
       </c>
       <c r="W32" t="n">
-        <v>2621.725159748665</v>
+        <v>2554.647267588642</v>
       </c>
       <c r="X32" t="n">
-        <v>2342.965859079625</v>
+        <v>2282.396514871763</v>
       </c>
       <c r="Y32" t="n">
-        <v>2057.168454398131</v>
+        <v>2003.107658142429</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>867.9086105230765</v>
+        <v>865.9161978846598</v>
       </c>
       <c r="C33" t="n">
-        <v>717.2543800831687</v>
+        <v>715.261967444752</v>
       </c>
       <c r="D33" t="n">
-        <v>587.165412704649</v>
+        <v>585.1730000662324</v>
       </c>
       <c r="E33" t="n">
-        <v>450.7189218155367</v>
+        <v>448.7265091771201</v>
       </c>
       <c r="F33" t="n">
-        <v>326.2871156986685</v>
+        <v>324.2947030602519</v>
       </c>
       <c r="G33" t="n">
-        <v>206.227297770533</v>
+        <v>204.2348851321164</v>
       </c>
       <c r="H33" t="n">
-        <v>117.9298813711339</v>
+        <v>115.9374687327173</v>
       </c>
       <c r="I33" t="n">
-        <v>68.54262738304547</v>
+        <v>66.55021474462895</v>
       </c>
       <c r="J33" t="n">
-        <v>181.6576096027729</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="K33" t="n">
-        <v>501.3967556649993</v>
+        <v>499.4043430265828</v>
       </c>
       <c r="L33" t="n">
-        <v>984.9628415633126</v>
+        <v>982.9704289248959</v>
       </c>
       <c r="M33" t="n">
-        <v>1612.734491189994</v>
+        <v>982.9704289248959</v>
       </c>
       <c r="N33" t="n">
-        <v>2152.513070803791</v>
+        <v>1228.379006857996</v>
       </c>
       <c r="O33" t="n">
-        <v>2152.513070803791</v>
+        <v>1744.899289448977</v>
       </c>
       <c r="P33" t="n">
-        <v>2152.513070803791</v>
+        <v>2150.520658165374</v>
       </c>
       <c r="Q33" t="n">
-        <v>2386.878162358681</v>
+        <v>2384.885749720265</v>
       </c>
       <c r="R33" t="n">
-        <v>2362.961119256746</v>
+        <v>2360.968706618329</v>
       </c>
       <c r="S33" t="n">
-        <v>2228.030442156615</v>
+        <v>2226.038029518198</v>
       </c>
       <c r="T33" t="n">
-        <v>2051.046630355523</v>
+        <v>2049.054217717106</v>
       </c>
       <c r="U33" t="n">
-        <v>1840.983487034165</v>
+        <v>1838.991074395748</v>
       </c>
       <c r="V33" t="n">
-        <v>1618.443485405232</v>
+        <v>1616.451072766815</v>
       </c>
       <c r="W33" t="n">
-        <v>1388.326239538519</v>
+        <v>1386.333826900102</v>
       </c>
       <c r="X33" t="n">
-        <v>1199.019161888531</v>
+        <v>1197.026749250114</v>
       </c>
       <c r="Y33" t="n">
-        <v>1019.704944964038</v>
+        <v>1017.712532325621</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>389.2395048590206</v>
+        <v>341.6872565554794</v>
       </c>
       <c r="C34" t="n">
-        <v>329.7276913229138</v>
+        <v>288.6839909715333</v>
       </c>
       <c r="D34" t="n">
-        <v>284.7878826233326</v>
+        <v>250.2527302241127</v>
       </c>
       <c r="E34" t="n">
-        <v>239.9223748804391</v>
+        <v>211.8957704333799</v>
       </c>
       <c r="F34" t="n">
-        <v>193.289744491316</v>
+        <v>171.7716879964175</v>
       </c>
       <c r="G34" t="n">
-        <v>135.7289949886656</v>
+        <v>120.7194864459277</v>
       </c>
       <c r="H34" t="n">
-        <v>90.94374834806358</v>
+        <v>82.44278775748637</v>
       </c>
       <c r="I34" t="n">
-        <v>68.54262738304547</v>
+        <v>66.55021474462895</v>
       </c>
       <c r="J34" t="n">
-        <v>147.2593924259937</v>
+        <v>66.55021474462895</v>
       </c>
       <c r="K34" t="n">
-        <v>229.0944335359356</v>
+        <v>162.2350636228033</v>
       </c>
       <c r="L34" t="n">
-        <v>393.2220734097353</v>
+        <v>326.3627034966031</v>
       </c>
       <c r="M34" t="n">
-        <v>579.5136517479993</v>
+        <v>512.6542818348671</v>
       </c>
       <c r="N34" t="n">
-        <v>871.1937934195943</v>
+        <v>695.8439158660763</v>
       </c>
       <c r="O34" t="n">
-        <v>1092.305453964895</v>
+        <v>973.4182183960827</v>
       </c>
       <c r="P34" t="n">
-        <v>1320.672127381859</v>
+        <v>1208.16391966096</v>
       </c>
       <c r="Q34" t="n">
-        <v>1432.584831392296</v>
+        <v>1326.455651519309</v>
       </c>
       <c r="R34" t="n">
-        <v>1419.377146422777</v>
+        <v>1319.756514501951</v>
       </c>
       <c r="S34" t="n">
-        <v>1327.254367003231</v>
+        <v>1234.142283034565</v>
       </c>
       <c r="T34" t="n">
-        <v>1202.228619569369</v>
+        <v>1115.625083552863</v>
       </c>
       <c r="U34" t="n">
-        <v>1027.483132209174</v>
+        <v>947.388144144829</v>
       </c>
       <c r="V34" t="n">
-        <v>872.1970914279018</v>
+        <v>798.6106513157179</v>
       </c>
       <c r="W34" t="n">
-        <v>699.5599937569834</v>
+        <v>632.4821015969601</v>
       </c>
       <c r="X34" t="n">
-        <v>576.1729759378705</v>
+        <v>515.6036317300079</v>
       </c>
       <c r="Y34" t="n">
-        <v>463.7542191524179</v>
+        <v>409.693422896716</v>
       </c>
     </row>
     <row r="35">
@@ -6917,37 +6917,37 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924227</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J35" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129445</v>
       </c>
       <c r="K35" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404064</v>
       </c>
       <c r="L35" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M35" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N35" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O35" t="n">
         <v>2572.923332933306</v>
@@ -6956,25 +6956,25 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.295701071062</v>
       </c>
       <c r="U35" t="n">
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
@@ -7023,10 +7023,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1606.310991511064</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N36" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
         <v>1740.468202408463</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462917</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7105,40 +7105,40 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>677.5630210573304</v>
+        <v>683.1426636655146</v>
       </c>
       <c r="O37" t="n">
-        <v>840.2677880990384</v>
+        <v>845.8474307072227</v>
       </c>
       <c r="P37" t="n">
-        <v>960.1439538756169</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q37" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S37" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H38" t="n">
         <v>68.77950792924223</v>
@@ -7217,7 +7217,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="39">
@@ -7260,13 +7260,13 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1606.310991511064</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N39" t="n">
-        <v>2146.089571124861</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
         <v>2146.089571124861</v>
@@ -7330,25 +7330,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>67.69877031229927</v>
+        <v>67.69877031229905</v>
       </c>
       <c r="K40" t="n">
-        <v>149.5338114222411</v>
+        <v>149.5338114222409</v>
       </c>
       <c r="L40" t="n">
-        <v>313.6614512960409</v>
+        <v>313.6614512960407</v>
       </c>
       <c r="M40" t="n">
-        <v>499.953029634305</v>
+        <v>499.9530296343048</v>
       </c>
       <c r="N40" t="n">
-        <v>683.1426636655142</v>
+        <v>683.142663665514</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296507</v>
+        <v>845.8474307072221</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106229</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q40" t="n">
         <v>1098.20216247628</v>
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1812.812015342702</v>
+        <v>1340.175609875975</v>
       </c>
       <c r="C41" t="n">
-        <v>1517.077765835766</v>
+        <v>1340.175609875975</v>
       </c>
       <c r="D41" t="n">
-        <v>1229.077889042567</v>
+        <v>1052.175733082776</v>
       </c>
       <c r="E41" t="n">
-        <v>923.9356161492444</v>
+        <v>747.0334601894539</v>
       </c>
       <c r="F41" t="n">
-        <v>604.4824296693554</v>
+        <v>645.3782945867572</v>
       </c>
       <c r="G41" t="n">
-        <v>288.7609261474918</v>
+        <v>329.6567910648936</v>
       </c>
       <c r="H41" t="n">
-        <v>62.11912770411573</v>
+        <v>103.0149926215175</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J41" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K41" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L41" t="n">
         <v>1059.071548358934</v>
@@ -7436,25 +7436,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3105.956385205776</v>
+        <v>3036.88408213696</v>
       </c>
       <c r="T41" t="n">
-        <v>3105.956385205776</v>
+        <v>2910.82473168651</v>
       </c>
       <c r="U41" t="n">
-        <v>2947.644907630508</v>
+        <v>2752.513254111242</v>
       </c>
       <c r="V41" t="n">
-        <v>2947.644907630508</v>
+        <v>2507.847696804894</v>
       </c>
       <c r="W41" t="n">
-        <v>2674.087124588929</v>
+        <v>2234.289913763314</v>
       </c>
       <c r="X41" t="n">
-        <v>2414.914966153231</v>
+        <v>1942.278560686505</v>
       </c>
       <c r="Y41" t="n">
-        <v>2115.865509063965</v>
+        <v>1643.229103597239</v>
       </c>
     </row>
     <row r="42">
@@ -7497,10 +7497,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1606.310991511064</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N42" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
         <v>1740.468202408463</v>
@@ -7543,61 +7543,61 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>475.5803720344858</v>
+        <v>475.580372034486</v>
       </c>
       <c r="C43" t="n">
-        <v>402.8165060906083</v>
+        <v>402.8165060906085</v>
       </c>
       <c r="D43" t="n">
-        <v>344.6246449832563</v>
+        <v>344.6246449832565</v>
       </c>
       <c r="E43" t="n">
-        <v>286.5070848325921</v>
+        <v>286.5070848325922</v>
       </c>
       <c r="F43" t="n">
-        <v>226.6224020356983</v>
+        <v>226.6224020356984</v>
       </c>
       <c r="G43" t="n">
-        <v>155.8096001252771</v>
+        <v>155.8096001252772</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77230107690437</v>
+        <v>97.7723010769044</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>68.2319501674381</v>
+        <v>127.8475561822076</v>
       </c>
       <c r="K43" t="n">
-        <v>245.5691623529096</v>
+        <v>305.1847683676791</v>
       </c>
       <c r="L43" t="n">
-        <v>505.198973302239</v>
+        <v>564.8145793170083</v>
       </c>
       <c r="M43" t="n">
-        <v>786.9927227160326</v>
+        <v>846.608328730802</v>
       </c>
       <c r="N43" t="n">
-        <v>1065.684527822772</v>
+        <v>1125.300133837541</v>
       </c>
       <c r="O43" t="n">
-        <v>1323.891465940009</v>
+        <v>1383.507071954778</v>
       </c>
       <c r="P43" t="n">
-        <v>1539.269802792117</v>
+        <v>1598.885408806887</v>
       </c>
       <c r="Q43" t="n">
-        <v>1638.194170237698</v>
+        <v>1638.194170237699</v>
       </c>
       <c r="R43" t="n">
-        <v>1611.734432860408</v>
+        <v>1611.734432860409</v>
       </c>
       <c r="S43" t="n">
-        <v>1506.359601033091</v>
+        <v>1506.359601033092</v>
       </c>
       <c r="T43" t="n">
-        <v>1368.081801191458</v>
+        <v>1368.081801191459</v>
       </c>
       <c r="U43" t="n">
         <v>1180.084261423493</v>
@@ -7606,13 +7606,13 @@
         <v>1011.54616823445</v>
       </c>
       <c r="W43" t="n">
-        <v>825.6570181557609</v>
+        <v>825.6570181557611</v>
       </c>
       <c r="X43" t="n">
-        <v>689.0179479288772</v>
+        <v>689.0179479288774</v>
       </c>
       <c r="Y43" t="n">
-        <v>563.3471387356539</v>
+        <v>563.3471387356541</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1812.812015342702</v>
+        <v>1586.170216899326</v>
       </c>
       <c r="C44" t="n">
-        <v>1517.077765835766</v>
+        <v>1290.435967392389</v>
       </c>
       <c r="D44" t="n">
-        <v>1229.077889042567</v>
+        <v>1002.43609059919</v>
       </c>
       <c r="E44" t="n">
-        <v>923.9356161492442</v>
+        <v>697.293817705868</v>
       </c>
       <c r="F44" t="n">
-        <v>604.4824296693553</v>
+        <v>377.8406312259791</v>
       </c>
       <c r="G44" t="n">
-        <v>288.7609261474917</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H44" t="n">
         <v>62.11912770411553</v>
@@ -7682,16 +7682,16 @@
         <v>2821.585557180058</v>
       </c>
       <c r="V44" t="n">
-        <v>2821.585557180058</v>
+        <v>2576.919999873709</v>
       </c>
       <c r="W44" t="n">
-        <v>2548.027774138479</v>
+        <v>2480.284520786665</v>
       </c>
       <c r="X44" t="n">
-        <v>2256.016421061669</v>
+        <v>2188.273167709855</v>
       </c>
       <c r="Y44" t="n">
-        <v>1956.966963972402</v>
+        <v>1889.223710620589</v>
       </c>
     </row>
     <row r="45">
@@ -7725,22 +7725,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1493.196009291336</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N45" t="n">
-        <v>2146.089571124861</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
         <v>2146.089571124861</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>475.5803720344863</v>
+        <v>475.580372034486</v>
       </c>
       <c r="C46" t="n">
-        <v>402.8165060906087</v>
+        <v>402.8165060906085</v>
       </c>
       <c r="D46" t="n">
-        <v>344.6246449832566</v>
+        <v>344.6246449832565</v>
       </c>
       <c r="E46" t="n">
-        <v>286.5070848325923</v>
+        <v>286.5070848325922</v>
       </c>
       <c r="F46" t="n">
-        <v>226.6224020356985</v>
+        <v>226.6224020356984</v>
       </c>
       <c r="G46" t="n">
         <v>155.8096001252772</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77230107690443</v>
+        <v>97.7723010769044</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7807,22 +7807,22 @@
         <v>127.8475561822076</v>
       </c>
       <c r="K46" t="n">
-        <v>305.184768367679</v>
+        <v>305.1847683676791</v>
       </c>
       <c r="L46" t="n">
         <v>564.8145793170083</v>
       </c>
       <c r="M46" t="n">
-        <v>786.9927227160341</v>
+        <v>846.608328730802</v>
       </c>
       <c r="N46" t="n">
-        <v>1065.684527822773</v>
+        <v>1125.300133837541</v>
       </c>
       <c r="O46" t="n">
-        <v>1323.891465940011</v>
+        <v>1383.507071954778</v>
       </c>
       <c r="P46" t="n">
-        <v>1539.269802792119</v>
+        <v>1598.885408806887</v>
       </c>
       <c r="Q46" t="n">
         <v>1638.194170237699</v>
@@ -7840,16 +7840,16 @@
         <v>1180.084261423493</v>
       </c>
       <c r="V46" t="n">
-        <v>1011.546168234451</v>
+        <v>1011.54616823445</v>
       </c>
       <c r="W46" t="n">
-        <v>825.6570181557615</v>
+        <v>825.6570181557611</v>
       </c>
       <c r="X46" t="n">
-        <v>689.0179479288779</v>
+        <v>689.0179479288774</v>
       </c>
       <c r="Y46" t="n">
-        <v>563.3471387356544</v>
+        <v>563.3471387356541</v>
       </c>
     </row>
   </sheetData>
@@ -7976,19 +7976,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>449.5903795131144</v>
+        <v>302.4484625520512</v>
       </c>
       <c r="N2" t="n">
-        <v>149.1184913377841</v>
+        <v>655.3475650705627</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -7997,7 +7997,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,28 +8055,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>623.5213537622972</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>616.5063445671519</v>
+        <v>362.4676536219487</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>598.9166326216675</v>
       </c>
       <c r="P3" t="n">
-        <v>255.1642265946606</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,22 +8213,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>680.8592833107125</v>
+        <v>655.9541253305058</v>
       </c>
       <c r="N5" t="n">
         <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
-        <v>538.6751323930052</v>
+        <v>248.4683687559958</v>
       </c>
       <c r="P5" t="n">
         <v>502.0059847475129</v>
@@ -8301,19 +8301,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>206.459452036402</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>616.5063445671519</v>
+        <v>362.4676536219487</v>
       </c>
       <c r="O6" t="n">
-        <v>92.68755888888889</v>
+        <v>598.9166326216675</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8453,16 +8453,16 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>271.1401458256686</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M8" t="n">
-        <v>501.5538002401705</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>149.1184913377841</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
@@ -8529,7 +8529,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>193.2214284919212</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
         <v>412.5657697396227</v>
@@ -8538,16 +8538,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>447.5171231095482</v>
       </c>
       <c r="O9" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
         <v>327.7205688679246</v>
@@ -8769,7 +8769,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
@@ -8778,13 +8778,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>579.1898666384017</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q12" t="n">
         <v>90.98815315591399</v>
@@ -9006,16 +9006,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>691.2645480167034</v>
       </c>
       <c r="N15" t="n">
-        <v>624.8237719316268</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9024,7 +9024,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9249,19 +9249,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
-        <v>457.616862805975</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O18" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9410,7 +9410,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N20" t="n">
-        <v>682.2612020826953</v>
+        <v>682.2612020826954</v>
       </c>
       <c r="O20" t="n">
         <v>594.0482827698827</v>
@@ -9483,13 +9483,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>192.2856137303845</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9720,13 +9720,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>187.5973797276328</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9957,13 +9957,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>192.2856137303842</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10197,16 +10197,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>108.8653421701423</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
         <v>327.7205688679246</v>
@@ -10434,16 +10434,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>630.6030013529515</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O33" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
         <v>327.7205688679246</v>
@@ -10671,13 +10671,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>220.8844470939643</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O36" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
         <v>496.801919078302</v>
@@ -10908,16 +10908,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>630.6030013529515</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O39" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
         <v>327.7205688679246</v>
@@ -11145,13 +11145,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>220.8844470939643</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O42" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
@@ -11373,7 +11373,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
@@ -11382,16 +11382,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>744.8605591506561</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O45" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
         <v>327.7205688679246</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>45.38170695708329</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414337</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.8571450340435</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>145.2325565835405</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>145.2325565835399</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>148.4426839581577</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T14" t="n">
         <v>127.274321941861</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -25628,7 +25628,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>292.7769070118668</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25637,7 +25637,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>215.6200406684212</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25646,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>40.48690626822788</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,22 +25676,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.38158003812801</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>124.7987569459456</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>242.2189017332848</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>32.5108026947006</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>157.3095596406474</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25880,10 +25880,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>224.3753804589423</v>
       </c>
       <c r="I44" t="n">
-        <v>40.48690626822794</v>
+        <v>40.48690626822791</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.38158003812806</v>
+        <v>68.38158003812804</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25922,10 +25922,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>242.2189017332849</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>175.1530809149886</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>630652.9654901212</v>
+        <v>629149.0964557204</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>630652.9654901212</v>
+        <v>629149.0964557204</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>606845.057547146</v>
+        <v>606845.0575471461</v>
       </c>
     </row>
     <row r="7">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>609209.7172312447</v>
+        <v>609209.7172312444</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>609209.7172312444</v>
+        <v>609209.7172312447</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>685262.276754756</v>
+        <v>685262.2767547559</v>
       </c>
       <c r="C2" t="n">
         <v>685262.2767547558</v>
       </c>
       <c r="D2" t="n">
-        <v>685262.2767547556</v>
+        <v>685262.2767547555</v>
       </c>
       <c r="E2" t="n">
-        <v>644009.2661963057</v>
+        <v>644009.2661963059</v>
       </c>
       <c r="F2" t="n">
-        <v>644009.2661963055</v>
+        <v>644009.2661963061</v>
       </c>
       <c r="G2" t="n">
-        <v>685262.276754756</v>
+        <v>685262.2767547562</v>
       </c>
       <c r="H2" t="n">
+        <v>685262.2767547563</v>
+      </c>
+      <c r="I2" t="n">
         <v>685262.2767547562</v>
       </c>
-      <c r="I2" t="n">
-        <v>685262.276754756</v>
-      </c>
       <c r="J2" t="n">
+        <v>685262.2767547563</v>
+      </c>
+      <c r="K2" t="n">
         <v>685262.2767547558</v>
       </c>
-      <c r="K2" t="n">
-        <v>685262.2767547559</v>
-      </c>
       <c r="L2" t="n">
-        <v>685262.2767547554</v>
+        <v>685262.2767547568</v>
       </c>
       <c r="M2" t="n">
+        <v>685262.2767547562</v>
+      </c>
+      <c r="N2" t="n">
         <v>685262.2767547561</v>
       </c>
-      <c r="N2" t="n">
-        <v>685262.276754756</v>
-      </c>
       <c r="O2" t="n">
-        <v>646817.2995711737</v>
+        <v>646817.2995711736</v>
       </c>
       <c r="P2" t="n">
-        <v>646817.2995711735</v>
+        <v>646817.2995711736</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177995.2971343508</v>
+        <v>169649.00587655</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18724.12238602651</v>
+        <v>26460.41160941811</v>
       </c>
       <c r="E3" t="n">
         <v>130452.9311377121</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
         <v>29094.95587301433</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>221845.8749469667</v>
+        <v>215329.5897923934</v>
       </c>
       <c r="K3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>41571.03337670109</v>
+        <v>46725.80335481239</v>
       </c>
       <c r="M3" t="n">
-        <v>42731.27693436849</v>
+        <v>43782.97194555664</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>18983.55983015688</v>
+        <v>18983.55983015685</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>224181.5440797611</v>
+        <v>229389.8493215836</v>
       </c>
       <c r="C4" t="n">
-        <v>224181.5440797611</v>
+        <v>229389.8493215836</v>
       </c>
       <c r="D4" t="n">
         <v>211575.8953047903</v>
@@ -26433,10 +26433,10 @@
         <v>186364.8769761035</v>
       </c>
       <c r="H4" t="n">
+        <v>186364.8769761036</v>
+      </c>
+      <c r="I4" t="n">
         <v>186364.8769761035</v>
-      </c>
-      <c r="I4" t="n">
-        <v>186364.8769761036</v>
       </c>
       <c r="J4" t="n">
         <v>187115.3694404867</v>
@@ -26445,7 +26445,7 @@
         <v>187115.3694404867</v>
       </c>
       <c r="L4" t="n">
-        <v>186792.5147858255</v>
+        <v>186659.1201767708</v>
       </c>
       <c r="M4" t="n">
         <v>186364.8769761036</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65920.5612881495</v>
+        <v>64406.32768295293</v>
       </c>
       <c r="C5" t="n">
-        <v>65920.5612881495</v>
+        <v>64406.32768295293</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26497,7 +26497,7 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61305.21346446767</v>
+        <v>60332.6753058834</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26506,7 +26506,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>55320.40778255073</v>
+        <v>55320.40778255072</v>
       </c>
       <c r="P5" t="n">
         <v>55320.40778255072</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>217164.8742524946</v>
+        <v>221817.0938736694</v>
       </c>
       <c r="C6" t="n">
-        <v>395160.1713868451</v>
+        <v>391466.0997502193</v>
       </c>
       <c r="D6" t="n">
-        <v>385376.8017867656</v>
+        <v>377640.5125633739</v>
       </c>
       <c r="E6" t="n">
-        <v>296683.4892170629</v>
+        <v>296574.9286629619</v>
       </c>
       <c r="F6" t="n">
-        <v>427136.4203547748</v>
+        <v>427027.8598006742</v>
       </c>
       <c r="G6" t="n">
-        <v>411632.6745901185</v>
+        <v>411632.6745901188</v>
       </c>
       <c r="H6" t="n">
+        <v>440727.6304631331</v>
+      </c>
+      <c r="I6" t="n">
         <v>440727.630463133</v>
       </c>
-      <c r="I6" t="n">
-        <v>440727.6304631328</v>
-      </c>
       <c r="J6" t="n">
-        <v>212641.987113383</v>
+        <v>219158.2722679568</v>
       </c>
       <c r="K6" t="n">
         <v>434487.8620603496</v>
       </c>
       <c r="L6" t="n">
-        <v>395593.5151277612</v>
+        <v>391544.6779172901</v>
       </c>
       <c r="M6" t="n">
-        <v>397996.3535287644</v>
+        <v>396944.6585175764</v>
       </c>
       <c r="N6" t="n">
-        <v>440727.6304631328</v>
+        <v>440727.6304631329</v>
       </c>
       <c r="O6" t="n">
-        <v>409078.1597268532</v>
+        <v>408976.9887342646</v>
       </c>
       <c r="P6" t="n">
-        <v>428061.7195570098</v>
+        <v>427960.5485644215</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>93.99127447431644</v>
       </c>
       <c r="F2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
+        <v>93.99127447431648</v>
+      </c>
+      <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
-      <c r="K2" t="n">
-        <v>93.99127447431651</v>
-      </c>
       <c r="L2" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26722,10 +26722,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>96.46683947023193</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="P2" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
     </row>
     <row r="3">
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129853</v>
+        <v>506.2290737327786</v>
       </c>
       <c r="C4" t="n">
-        <v>531.1342317129853</v>
+        <v>506.2290737327786</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="E4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="F4" t="n">
         <v>776.4890963014441</v>
@@ -26811,16 +26811,16 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.060736844378</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443781</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>856.7828422880683</v>
+        <v>831.8776843078617</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
@@ -26917,13 +26917,13 @@
         <v>93.99127447431644</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
         <v>36.36869484126791</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26932,19 +26932,19 @@
         <v>57.62257963304855</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>51.96379172087636</v>
+        <v>58.40725419351548</v>
       </c>
       <c r="M2" t="n">
-        <v>20.77359796165942</v>
+        <v>14.33013548902035</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>23.7294497876961</v>
+        <v>23.72944978769607</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129853</v>
+        <v>506.2290737327786</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>60.27789455630977</v>
+        <v>85.18305253651647</v>
       </c>
       <c r="E4" t="n">
-        <v>185.076970032149</v>
+        <v>185.0769700321489</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>671.7058722559195</v>
+        <v>646.8007142757125</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>104.7832240455248</v>
+        <v>129.6883820257314</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,13 +27154,13 @@
         <v>93.99127447431644</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
         <v>36.36869484126791</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>57.62257963304855</v>
       </c>
       <c r="P2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>531.1342317129853</v>
+        <v>506.2290737327786</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>60.27789455630977</v>
+        <v>85.18305253651647</v>
       </c>
       <c r="M4" t="n">
-        <v>185.076970032149</v>
+        <v>185.0769700321489</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>347.9626710007713</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>160.1302420256022</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27467,13 +27467,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>27.652791209867</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>31.15233105165177</v>
       </c>
     </row>
     <row r="4">
@@ -27543,16 +27543,16 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>22.31857408728007</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>16.09729481249332</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>57.27927911875867</v>
       </c>
       <c r="C5" t="n">
-        <v>268.6047904261808</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27695,7 +27695,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>97.61862951051366</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27704,10 +27704,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>75.41134685124538</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
         <v>87.41444223540508</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
@@ -27780,10 +27780,10 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
@@ -27795,7 +27795,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>45.18257638862872</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>125.8128438411875</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>153.7885616961714</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>111.9732737963695</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,22 +27898,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
@@ -28065,19 +28065,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>165.708020294746</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>66.12369447580221</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.9912744743162</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="17">
@@ -28743,10 +28743,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28764,10 +28764,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>35.71049010668797</v>
       </c>
       <c r="R19" t="n">
-        <v>128.2979821082783</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28983,7 +28983,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -28998,13 +28998,13 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>128.2979821082783</v>
+        <v>128.2979821082774</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733418</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
         <v>130.3599693155844</v>
@@ -29217,7 +29217,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29232,13 +29232,13 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>128.2979821082783</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>28.0125002648524</v>
       </c>
       <c r="R25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P26" t="n">
-        <v>30.27223765901277</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>30.27223765901132</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="29">
@@ -29509,46 +29509,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>30.27223765901169</v>
+        <v>30.27223765901266</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -29557,28 +29557,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="C32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="D32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="E32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="F32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="G32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="H32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="I32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29776,46 +29776,46 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>109.586371353925</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>109.586371353925</v>
+        <v>24.86974620214187</v>
       </c>
       <c r="O32" t="n">
-        <v>26.78466270502065</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>116.029833826564</v>
       </c>
       <c r="R32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="S32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="T32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="U32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="V32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="W32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="X32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="Y32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
     </row>
     <row r="33">
@@ -29904,34 +29904,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="C34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="D34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="E34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="F34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="G34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="H34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="I34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="J34" t="n">
-        <v>109.586371353925</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>13.98970481639647</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -29940,40 +29940,40 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>109.586371353925</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>58.99686212484121</v>
+        <v>116.029833826564</v>
       </c>
       <c r="P34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="R34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="S34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="T34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="U34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="V34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="W34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="X34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="Y34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
     </row>
     <row r="35">
@@ -30007,7 +30007,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>9.379164112033322e-13</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -30177,19 +30177,19 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>5.63600263452949</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Q37" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30402,7 +30402,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>35.71049010668811</v>
+        <v>35.71049010668788</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30417,13 +30417,13 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>122.6619794737488</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>96.46683947023193</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="C41" t="n">
-        <v>96.46683947023193</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="D41" t="n">
-        <v>96.46683947023193</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="E41" t="n">
-        <v>96.46683947023193</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="F41" t="n">
-        <v>96.46683947023193</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="G41" t="n">
-        <v>96.46683947023193</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="H41" t="n">
-        <v>96.46683947023193</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="I41" t="n">
-        <v>96.46683947023193</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30502,31 +30502,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-13</v>
       </c>
       <c r="R41" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>96.46683947023193</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="T41" t="n">
-        <v>96.46683947023193</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="U41" t="n">
-        <v>96.46683947023193</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="V41" t="n">
-        <v>96.46683947023193</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="W41" t="n">
-        <v>96.46683947023193</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="X41" t="n">
-        <v>96.46683947023193</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="Y41" t="n">
-        <v>96.46683947023193</v>
+        <v>96.4668394702319</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="C43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="D43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="E43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="F43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="G43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="H43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="I43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="J43" t="n">
-        <v>36.24905561692935</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="K43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="L43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="M43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="N43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="O43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="P43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.46683947023193</v>
+        <v>36.24905561693076</v>
       </c>
       <c r="R43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="S43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="T43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="U43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="V43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="W43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="X43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="Y43" t="n">
-        <v>96.46683947023193</v>
+        <v>96.4668394702319</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="C44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="D44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="E44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="F44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="G44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="H44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="I44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="T44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="U44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="V44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="W44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="X44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="Y44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="C46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="D46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="E46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="F46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="G46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="H46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="I46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="J46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="K46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="L46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="M46" t="n">
-        <v>36.24905561693106</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="N46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="O46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="P46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="Q46" t="n">
-        <v>96.46683947023187</v>
+        <v>36.24905561693076</v>
       </c>
       <c r="R46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="S46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="T46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="U46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="V46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="W46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="X46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="Y46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
     </row>
   </sheetData>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>299.8653279153871</v>
+        <v>152.7234109543239</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>506.2290737327786</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34717,7 +34717,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>531.1342317129853</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>531.1342317129853</v>
+        <v>277.095540767782</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>506.2290737327786</v>
       </c>
       <c r="P3" t="n">
-        <v>168.080861775346</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,22 +34933,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>531.1342317129853</v>
+        <v>506.2290737327786</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>389.1112949689088</v>
+        <v>98.90453133189939</v>
       </c>
       <c r="P5" t="n">
         <v>351.7045375065877</v>
@@ -35021,19 +35021,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>114.0723299870901</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>531.1342317129853</v>
+        <v>277.095540767782</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>506.2290737327786</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,16 +35173,16 @@
         <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>128.0817426464313</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>351.8287486424433</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>110.7769711585879</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>322.9688344062893</v>
@@ -35258,16 +35258,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>362.1450102553815</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
         <v>236.7324157120106</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
@@ -35498,13 +35498,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>486.5023077495127</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35726,16 +35726,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="N15" t="n">
-        <v>539.4516590774601</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35744,7 +35744,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215713</v>
       </c>
       <c r="K16" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L16" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M16" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N16" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O16" t="n">
         <v>258.3395240113953</v>
@@ -35823,7 +35823,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,7 +35887,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L17" t="n">
-        <v>498.3033249682109</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M17" t="n">
         <v>551.5160606510915</v>
@@ -35969,19 +35969,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>372.2447499518083</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K19" t="n">
-        <v>213.0216270023943</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
@@ -36060,10 +36060,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.456764010152483</v>
+        <v>39.16725411684045</v>
       </c>
       <c r="R19" t="n">
-        <v>5.636002634529554</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N20" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O20" t="n">
         <v>444.4844453457863</v>
@@ -36203,13 +36203,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2252668734663</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
@@ -36294,13 +36294,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>5.636002634529554</v>
+        <v>5.636002634528635</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36440,13 +36440,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>102.2252668734662</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
@@ -36528,16 +36528,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>292.6462316453571</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.456764010152483</v>
+        <v>31.46926427500488</v>
       </c>
       <c r="R25" t="n">
-        <v>7.69798984183555</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K26" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>592.2945994425274</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M26" t="n">
         <v>645.507335125408</v>
@@ -36610,13 +36610,13 @@
         <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>381.9767751656005</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>186.7126870110591</v>
+        <v>216.9849246700705</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>56.3782898969832</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,13 +36677,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>102.225266873466</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004055</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>456.5997149060962</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
         <v>592.2945994425274</v>
@@ -36844,7 +36844,7 @@
         <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>474.756683004798</v>
+        <v>474.756683004799</v>
       </c>
       <c r="P29" t="n">
         <v>351.7045375065877</v>
@@ -36853,7 +36853,7 @@
         <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698323</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,16 +36917,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>23.49322931597565</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
         <v>236.7324157120106</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215744</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6529321611265</v>
+        <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
         <v>259.7767692963365</v>
       </c>
       <c r="M31" t="n">
-        <v>282.1645859271085</v>
+        <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
         <v>279.0313088492753</v>
       </c>
       <c r="O31" t="n">
-        <v>258.3395240113954</v>
+        <v>258.3395240113953</v>
       </c>
       <c r="P31" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.448038484469</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>607.8896963221359</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>642.7290820988361</v>
+        <v>558.012456947053</v>
       </c>
       <c r="O32" t="n">
-        <v>471.2691080508069</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>186.7126870110591</v>
+        <v>302.7425208376231</v>
       </c>
       <c r="R32" t="n">
-        <v>71.97338677659168</v>
+        <v>78.41684924923075</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,16 +37154,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>545.2308884987849</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
         <v>236.7324157120106</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>79.5118838817659</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>82.66165768680997</v>
+        <v>96.65136250320644</v>
       </c>
       <c r="L34" t="n">
         <v>165.78549482202</v>
@@ -37236,16 +37236,16 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>294.6264057288838</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>223.3451116619201</v>
+        <v>280.3780833636429</v>
       </c>
       <c r="P34" t="n">
-        <v>230.6734074918831</v>
+        <v>237.1168699645222</v>
       </c>
       <c r="Q34" t="n">
-        <v>113.0431353640774</v>
+        <v>119.4865978367165</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>146.110881726089</v>
+        <v>146.1108817260899</v>
       </c>
       <c r="K35" t="n">
         <v>362.6084404317796</v>
@@ -37391,13 +37391,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>135.5123342397976</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
         <v>409.7185542589873</v>
@@ -37473,19 +37473,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094883</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q37" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37628,16 +37628,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>545.2308884987849</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
         <v>236.7324157120106</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>5.636002634529037</v>
+        <v>5.636002634528808</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
@@ -37713,13 +37713,13 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37798,7 +37798,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q41" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37865,13 +37865,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>135.5123342397976</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>6.174568144770276</v>
+        <v>66.39235199807283</v>
       </c>
       <c r="K43" t="n">
         <v>179.1284971570419</v>
@@ -37944,19 +37944,19 @@
         <v>262.2523342922519</v>
       </c>
       <c r="M43" t="n">
-        <v>284.6401509230239</v>
+        <v>284.6401509230238</v>
       </c>
       <c r="N43" t="n">
         <v>281.5068738451907</v>
       </c>
       <c r="O43" t="n">
-        <v>260.8150890073108</v>
+        <v>260.8150890073107</v>
       </c>
       <c r="P43" t="n">
         <v>217.5538756081901</v>
       </c>
       <c r="Q43" t="n">
-        <v>99.92360348038441</v>
+        <v>39.70581962708324</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
         <v>322.9688344062893</v>
@@ -38102,16 +38102,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>659.4884462964894</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
         <v>236.7324157120106</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>66.3923519980728</v>
+        <v>66.39235199807283</v>
       </c>
       <c r="K46" t="n">
         <v>179.1284971570419</v>
@@ -38181,7 +38181,7 @@
         <v>262.2523342922519</v>
       </c>
       <c r="M46" t="n">
-        <v>224.422367069723</v>
+        <v>284.6401509230238</v>
       </c>
       <c r="N46" t="n">
         <v>281.5068738451907</v>
@@ -38190,10 +38190,10 @@
         <v>260.8150890073107</v>
       </c>
       <c r="P46" t="n">
-        <v>217.55387560819</v>
+        <v>217.5538756081901</v>
       </c>
       <c r="Q46" t="n">
-        <v>99.92360348038436</v>
+        <v>39.70581962708324</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
